--- a/demo/testdata.xlsx
+++ b/demo/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\PyCharmProjects\SampleSheetCreator\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60440BEA-E3F7-4EBD-8FF2-C9ADCA3249E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD87D00E-C4A8-4632-B7C8-03335A598325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{789B8F8D-1307-4648-A27C-16B69EE6E2D1}"/>
+    <workbookView xWindow="30465" yWindow="3255" windowWidth="21600" windowHeight="12855" xr2:uid="{789B8F8D-1307-4648-A27C-16B69EE6E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -227,84 +227,6 @@
     <t>CGGCTCTACT</t>
   </si>
   <si>
-    <t>asdfasfd</t>
-  </si>
-  <si>
-    <t>sdgfsdgf</t>
-  </si>
-  <si>
-    <t>dfghdfgh</t>
-  </si>
-  <si>
-    <t>fghjfgj</t>
-  </si>
-  <si>
-    <t>ghkjghk</t>
-  </si>
-  <si>
-    <t>qwerqwre</t>
-  </si>
-  <si>
-    <t>wertwet</t>
-  </si>
-  <si>
-    <t>ertyerty</t>
-  </si>
-  <si>
-    <t>rtyurtyu</t>
-  </si>
-  <si>
-    <t>tyuityui</t>
-  </si>
-  <si>
-    <t>zxcvzxcv</t>
-  </si>
-  <si>
-    <t>xcbvxcbv</t>
-  </si>
-  <si>
-    <t>cvbncvbn</t>
-  </si>
-  <si>
-    <t>vbnmvbnm</t>
-  </si>
-  <si>
-    <t>rweqrweq</t>
-  </si>
-  <si>
-    <t>trewtew</t>
-  </si>
-  <si>
-    <t>yrtyre</t>
-  </si>
-  <si>
-    <t>urtyutr</t>
-  </si>
-  <si>
-    <t>ityuityu</t>
-  </si>
-  <si>
-    <t>fdsafdsa</t>
-  </si>
-  <si>
-    <t>gdfsgsdf</t>
-  </si>
-  <si>
-    <t>hdgfhgfd</t>
-  </si>
-  <si>
-    <t>jghfjgfh</t>
-  </si>
-  <si>
-    <t>khgkh</t>
-  </si>
-  <si>
-    <t>ljkhlj</t>
-  </si>
-  <si>
-    <t>ökljöklj</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
@@ -447,16 +369,100 @@
   </si>
   <si>
     <t>AATAGAGCAA</t>
+  </si>
+  <si>
+    <t>sample-1</t>
+  </si>
+  <si>
+    <t>sample-2</t>
+  </si>
+  <si>
+    <t>sample-3</t>
+  </si>
+  <si>
+    <t>sample-4</t>
+  </si>
+  <si>
+    <t>sample-5</t>
+  </si>
+  <si>
+    <t>sample-6</t>
+  </si>
+  <si>
+    <t>sample-7</t>
+  </si>
+  <si>
+    <t>sample-8</t>
+  </si>
+  <si>
+    <t>sample-9</t>
+  </si>
+  <si>
+    <t>sample-10</t>
+  </si>
+  <si>
+    <t>sample-11</t>
+  </si>
+  <si>
+    <t>sample-12</t>
+  </si>
+  <si>
+    <t>sample-13</t>
+  </si>
+  <si>
+    <t>sample-14</t>
+  </si>
+  <si>
+    <t>sample-15</t>
+  </si>
+  <si>
+    <t>sample-16</t>
+  </si>
+  <si>
+    <t>sample-17</t>
+  </si>
+  <si>
+    <t>sample-18</t>
+  </si>
+  <si>
+    <t>sample-19</t>
+  </si>
+  <si>
+    <t>sample-20</t>
+  </si>
+  <si>
+    <t>sample-21</t>
+  </si>
+  <si>
+    <t>sample-22</t>
+  </si>
+  <si>
+    <t>sample-23</t>
+  </si>
+  <si>
+    <t>sample-24</t>
+  </si>
+  <si>
+    <t>sample-25</t>
+  </si>
+  <si>
+    <t>sample-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,9 +508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +548,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -648,7 +654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,7 +807,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="A1:S26"/>
+      <selection activeCell="G27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -867,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -920,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -973,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1026,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1079,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1129,10 +1135,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1182,10 +1188,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -1235,10 +1241,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1288,10 +1294,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1341,10 +1347,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -1394,10 +1400,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -1447,10 +1453,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1500,10 +1506,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -1553,25 +1559,25 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
         <v>4</v>
@@ -1606,25 +1612,25 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
         <v>4</v>
@@ -1659,25 +1665,25 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
         <v>4</v>
@@ -1712,25 +1718,25 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
         <v>4</v>
@@ -1765,25 +1771,25 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
@@ -1818,25 +1824,25 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
         <v>4</v>
@@ -1871,25 +1877,25 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
         <v>4</v>
@@ -1924,25 +1930,25 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
         <v>4</v>
@@ -1977,25 +1983,25 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
         <v>4</v>
@@ -2030,25 +2036,25 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
         <v>4</v>
@@ -2083,25 +2089,25 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
         <v>4</v>
@@ -2136,25 +2142,25 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
         <v>4</v>
@@ -2188,6 +2194,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K000000 Begränsad delning&amp;1#_x000D_</oddHeader>

--- a/demo/testdata.xlsx
+++ b/demo/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\PyCharmProjects\SampleSheetCreator\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD87D00E-C4A8-4632-B7C8-03335A598325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11CD6E-33F4-41CB-B8FC-B4E04ED8924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="3255" windowWidth="21600" windowHeight="12855" xr2:uid="{789B8F8D-1307-4648-A27C-16B69EE6E2D1}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25650" windowHeight="10785" xr2:uid="{789B8F8D-1307-4648-A27C-16B69EE6E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="138">
   <si>
     <t>A1</t>
   </si>
@@ -59,18 +59,6 @@
     <t>gzip</t>
   </si>
   <si>
-    <t>DragenGermline_IDTLMN_TAG_WGS</t>
-  </si>
-  <si>
-    <t>DragenGermline</t>
-  </si>
-  <si>
-    <t>hg38-alt_masked.cnv.graph.hla.rna-8-1667497097-2</t>
-  </si>
-  <si>
-    <t>AllVariantCallers</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -447,6 +435,21 @@
   </si>
   <si>
     <t>sample-26</t>
+  </si>
+  <si>
+    <t>DragenEnrichment</t>
+  </si>
+  <si>
+    <t>DragenEnrichment_IDT_Germline</t>
+  </si>
+  <si>
+    <t>{"KeepFastq": true, "MapAlignOutFormat": "bam", "SoftwareVersion": "4.1.23"}</t>
+  </si>
+  <si>
+    <t>{"AuxCnvPanelOfNormalsFile": "na", "AuxNoiseBaselineFile": "na", "BedFile": "na", "GermlineOrSomatic": "germline", "ReferenceGenomeDir": "hg38-alt_masked.cnv.graph.hla.rna-8-1667497097-2", "VariantCallingMode": "AllVariantCallers"}</t>
+  </si>
+  <si>
+    <t>["ReferenceGenomeDir", "BedFile", "GermlineOrSomatic", "AuxNoiseBaselineFile", "AuxCnvPanelOfNormalsFile", "VariantCallingMode", "Sample_ID"]</t>
   </si>
 </sst>
 </file>
@@ -804,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D7120F-BAF9-49B2-905F-3CD2712A008C}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +818,12 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -852,97 +855,109 @@
       <c r="M1" t="s">
         <v>5</v>
       </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
       <c r="O1" t="s">
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
@@ -958,43 +973,49 @@
       <c r="M3" t="s">
         <v>5</v>
       </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
       <c r="O3" t="s">
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q3" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -1011,43 +1032,49 @@
       <c r="M4" t="s">
         <v>5</v>
       </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
       <c r="O4" t="s">
         <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R4" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -1064,43 +1091,49 @@
       <c r="M5" t="s">
         <v>5</v>
       </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
       <c r="O5" t="s">
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R5" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -1117,43 +1150,49 @@
       <c r="M6" t="s">
         <v>5</v>
       </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
       <c r="O6" t="s">
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R6" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
@@ -1170,43 +1209,49 @@
       <c r="M7" t="s">
         <v>5</v>
       </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
       <c r="O7" t="s">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R7" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
@@ -1223,43 +1268,49 @@
       <c r="M8" t="s">
         <v>5</v>
       </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
       <c r="O8" t="s">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R8" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -1276,43 +1327,49 @@
       <c r="M9" t="s">
         <v>5</v>
       </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
       <c r="O9" t="s">
         <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R9" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
@@ -1329,43 +1386,49 @@
       <c r="M10" t="s">
         <v>5</v>
       </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
       <c r="O10" t="s">
         <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R10" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
@@ -1382,43 +1445,49 @@
       <c r="M11" t="s">
         <v>5</v>
       </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
       <c r="O11" t="s">
         <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q11" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R11" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
@@ -1435,43 +1504,49 @@
       <c r="M12" t="s">
         <v>5</v>
       </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
       <c r="O12" t="s">
         <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q12" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R12" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
@@ -1488,43 +1563,49 @@
       <c r="M13" t="s">
         <v>5</v>
       </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
       <c r="O13" t="s">
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q13" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R13" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1541,43 +1622,49 @@
       <c r="M14" t="s">
         <v>5</v>
       </c>
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
       <c r="O14" t="s">
         <v>6</v>
       </c>
       <c r="P14" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q14" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R14" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
         <v>4</v>
@@ -1594,43 +1681,49 @@
       <c r="M15" t="s">
         <v>5</v>
       </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
       <c r="O15" t="s">
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q15" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R15" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
         <v>4</v>
@@ -1647,43 +1740,49 @@
       <c r="M16" t="s">
         <v>5</v>
       </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
       <c r="O16" t="s">
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q16" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R16" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
         <v>4</v>
@@ -1700,468 +1799,522 @@
       <c r="M17" t="s">
         <v>5</v>
       </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
       <c r="O17" t="s">
         <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q17" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R17" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="T17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" t="s">
+        <v>136</v>
+      </c>
+      <c r="T18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S20" t="s">
+        <v>136</v>
+      </c>
+      <c r="T20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>129</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>134</v>
+      </c>
+      <c r="R23" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" t="s">
+        <v>136</v>
+      </c>
+      <c r="T23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>130</v>
       </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R24" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" t="s">
+        <v>135</v>
+      </c>
+      <c r="S25" t="s">
+        <v>136</v>
+      </c>
+      <c r="T25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>132</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" t="s">
-        <v>9</v>
-      </c>
-      <c r="S22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" t="s">
-        <v>9</v>
-      </c>
-      <c r="S24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>105</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>106</v>
       </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
       <c r="I26" t="s">
         <v>4</v>
       </c>
@@ -2177,20 +2330,26 @@
       <c r="M26" t="s">
         <v>5</v>
       </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
       <c r="O26" t="s">
         <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="Q26" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="R26" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="S26" t="s">
-        <v>10</v>
+        <v>136</v>
+      </c>
+      <c r="T26" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
